--- a/tabla_torneo_domino.xlsx
+++ b/tabla_torneo_domino.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\DMX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16A271CC-AB3D-4ED9-A169-3E3F6FF2D05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361C4E05-9E7B-4CBE-8472-2E5F1E47C2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clasificación" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
   <si>
     <t>Pareja 1</t>
   </si>
@@ -73,12 +73,6 @@
     <t>Visitante</t>
   </si>
   <si>
-    <t>Jason/Sofia</t>
-  </si>
-  <si>
-    <t>Pareja 5</t>
-  </si>
-  <si>
     <t>Pareja 6</t>
   </si>
   <si>
@@ -107,6 +101,21 @@
   </si>
   <si>
     <t>Pareja 15</t>
+  </si>
+  <si>
+    <t>Jason/Jorge</t>
+  </si>
+  <si>
+    <t>Alex/Keneth</t>
+  </si>
+  <si>
+    <t>Teto/Pedro</t>
+  </si>
+  <si>
+    <t>Keko/Memo</t>
+  </si>
+  <si>
+    <t>Memin/Juan</t>
   </si>
 </sst>
 </file>
@@ -491,8 +500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -519,7 +528,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -539,7 +548,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -559,7 +568,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -579,7 +588,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -599,7 +608,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -619,7 +628,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -639,7 +648,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -659,7 +668,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -679,7 +688,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -699,7 +708,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -719,7 +728,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -739,7 +748,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -759,7 +768,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -779,7 +788,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -799,7 +808,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -922,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C408E5F6-9A82-4675-9773-A3D7E83CBDC5}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/tabla_torneo_domino.xlsx
+++ b/tabla_torneo_domino.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\DMX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{361C4E05-9E7B-4CBE-8472-2E5F1E47C2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CA4206-3B67-4579-97CB-79BE5BDC7B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clasificación" sheetId="1" r:id="rId1"/>
@@ -500,11 +500,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -531,19 +534,19 @@
         <v>26</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>367</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -551,19 +554,19 @@
         <v>27</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -571,19 +574,19 @@
         <v>28</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -591,19 +594,19 @@
         <v>29</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -611,19 +614,19 @@
         <v>30</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -931,7 +934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C408E5F6-9A82-4675-9773-A3D7E83CBDC5}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/tabla_torneo_domino.xlsx
+++ b/tabla_torneo_domino.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\DMX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10CA4206-3B67-4579-97CB-79BE5BDC7B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03FB80E-A33F-44E3-BB87-70BE16ABFA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,16 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
-  <si>
-    <t>Pareja 1</t>
-  </si>
-  <si>
-    <t>Pareja 2</t>
-  </si>
-  <si>
-    <t>Pareja 3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Pareja</t>
   </si>
@@ -59,9 +50,6 @@
   </si>
   <si>
     <t>Pareja Visitante</t>
-  </si>
-  <si>
-    <t>Pareja 4</t>
   </si>
   <si>
     <t>Resultado</t>
@@ -501,7 +489,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,27 +499,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -551,7 +539,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -571,7 +559,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -591,7 +579,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -611,7 +599,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -631,7 +619,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -651,7 +639,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -671,7 +659,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -691,7 +679,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -711,7 +699,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -731,7 +719,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -751,7 +739,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -771,7 +759,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -791,7 +779,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -811,7 +799,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -839,21 +827,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8CD7A53-2DB3-4E55-8305-14BFCA27EE25}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,10 +853,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,10 +864,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,10 +875,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,10 +886,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,10 +897,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,10 +908,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,29 +927,29 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -965,19 +957,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C2">
-        <v>150</v>
+        <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -985,19 +977,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C3">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E3">
-        <v>120</v>
+        <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1005,19 +997,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C4">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1025,19 +1017,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>130</v>
+        <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1045,19 +1037,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1065,19 +1057,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C7">
-        <v>140</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/tabla_torneo_domino.xlsx
+++ b/tabla_torneo_domino.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\DMX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03FB80E-A33F-44E3-BB87-70BE16ABFA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59F0E35-A978-4020-A0C6-912539658894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t>Pareja</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Memin/Juan</t>
+  </si>
+  <si>
+    <t>Pareja V</t>
   </si>
 </sst>
 </file>
@@ -927,7 +930,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -943,7 +946,7 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>5</v>

--- a/tabla_torneo_domino.xlsx
+++ b/tabla_torneo_domino.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\DMX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D59F0E35-A978-4020-A0C6-912539658894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8294A3F5-34B2-4AFF-A8E9-67F062212405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Clasificación" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
   <si>
     <t>Pareja</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Pareja V</t>
+  </si>
+  <si>
+    <t>PTS V</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A6"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +933,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,7 +952,7 @@
         <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>

--- a/tabla_torneo_domino.xlsx
+++ b/tabla_torneo_domino.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\DMX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jason\Desktop\Liga DMX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8294A3F5-34B2-4AFF-A8E9-67F062212405}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1099DF-C976-46E5-AE19-052C1058CB1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="16305" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="30">
   <si>
     <t>Pareja</t>
   </si>
@@ -55,12 +55,6 @@
     <t>Resultado</t>
   </si>
   <si>
-    <t>Local</t>
-  </si>
-  <si>
-    <t>Visitante</t>
-  </si>
-  <si>
     <t>Pareja 6</t>
   </si>
   <si>
@@ -110,6 +104,15 @@
   </si>
   <si>
     <t>PTS V</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>V</t>
   </si>
 </sst>
 </file>
@@ -492,324 +495,370 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2">
         <v>4</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
       <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
         <v>367</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>450</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>290</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="B3">
+      <c r="C5">
         <v>4</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>450</v>
-      </c>
-      <c r="F3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>290</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
         <v>310</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>360</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
         <v>0</v>
       </c>
@@ -820,6 +869,9 @@
         <v>0</v>
       </c>
       <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>0</v>
       </c>
     </row>
@@ -859,10 +911,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -870,10 +922,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -881,10 +933,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -892,10 +944,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -903,10 +955,10 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -914,10 +966,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -933,7 +985,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -949,10 +1001,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -963,19 +1015,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>103</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2">
         <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -983,19 +1035,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>54</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,19 +1055,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4">
         <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1023,19 +1075,19 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>120</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>76</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1043,19 +1095,19 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>80</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,19 +1115,19 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
